--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,72 @@
   </si>
   <si>
     <t>Thiết bị chập nguồn 3v3, hỏng MCU</t>
+  </si>
+  <si>
+    <t>Thiết bị chập chờn nguồn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20575</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30001</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi PIN</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu nước vào, oxi hóa toàn mạch</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thiết bị nổ cầu chì, hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thay diode chống quá áp</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>112.213.94.88,30001</t>
+  </si>
+  <si>
+    <t>Thiết bị lỏng chân nguồn</t>
+  </si>
+  <si>
+    <t>112.213.94.88,30005</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
   </si>
 </sst>
 </file>
@@ -739,22 +805,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,6 +827,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,43 +1183,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1198,58 +1264,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1274,23 +1340,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1390,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1363,7 +1429,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1466,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1503,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1540,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1577,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1614,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1587,7 +1653,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1690,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1727,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1698,7 +1764,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2961,6 +3027,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2972,13 +3045,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2990,7 +3056,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3022,43 +3088,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3103,58 +3169,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3179,23 +3245,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,7 +3284,9 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40"/>
       <c r="M6" s="1"/>
@@ -3229,7 +3297,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3260,7 +3328,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3357,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3318,7 +3386,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3347,7 +3415,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3376,7 +3444,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3405,7 +3473,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3436,7 +3504,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3465,7 +3533,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3494,7 +3562,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3523,7 +3591,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4754,6 +4822,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4765,13 +4840,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4782,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4815,43 +4883,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -4896,58 +4964,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -4972,23 +5040,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5030,7 +5098,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5085,7 +5153,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5122,15 +5190,25 @@
       <c r="L8" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5169,7 +5247,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5204,15 +5282,25 @@
       <c r="L10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="M10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5265,7 +5353,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5290,19 +5378,37 @@
         <v>65</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5330,18 +5436,30 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5366,19 +5484,37 @@
         <v>61</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>97</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5403,19 +5539,35 @@
         <v>61</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5440,19 +5592,35 @@
         <v>61</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="L16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5486,13 +5654,25 @@
       <c r="K17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="L17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="64"/>
@@ -5518,16 +5698,32 @@
         <v>61</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -5553,16 +5749,34 @@
         <v>61</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="63" t="s">
@@ -5592,16 +5806,32 @@
         <v>61</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -5609,7 +5839,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5638,7 +5868,9 @@
       <c r="J21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>71</v>
       </c>
@@ -5665,7 +5897,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5688,16 +5920,34 @@
         <v>65</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -5705,7 +5955,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5738,12 +5988,22 @@
       <c r="L23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -5769,16 +6029,32 @@
         <v>61</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="I24" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -5966,7 +6242,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6030,7 +6306,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6094,7 +6370,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -6126,7 +6402,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -6158,7 +6434,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6222,7 +6498,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6340,7 +6616,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6801,13 +7077,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6819,6 +7088,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6862,43 +7138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6943,58 +7219,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7019,23 +7295,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7337,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7092,7 +7368,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7121,7 +7397,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7150,7 +7426,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7179,7 +7455,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7208,7 +7484,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7237,7 +7513,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7268,7 +7544,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7297,7 +7573,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7326,7 +7602,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7355,7 +7631,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8586,6 +8862,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8597,13 +8880,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="137">
   <si>
     <t>STT</t>
   </si>
@@ -339,9 +339,6 @@
     <t>203.162.69.75,20375</t>
   </si>
   <si>
-    <t>Thiết bị lỗi PIN</t>
-  </si>
-  <si>
     <t>Thiết bị có dấu hiệu nước vào, oxi hóa toàn mạch</t>
   </si>
   <si>
@@ -379,6 +376,78 @@
   </si>
   <si>
     <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>112.213.94.88,30003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>203.162.69.18,17881</t>
+  </si>
+  <si>
+    <t>Thiết bị treo, không nhận sim</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>203.162.69.57,20002</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>RTB,LK,NCFW</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.181101</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30040</t>
+  </si>
+  <si>
+    <t>203.162.69.75,30011</t>
+  </si>
+  <si>
+    <t>112.213.94.88,30004</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20275</t>
+  </si>
+  <si>
+    <t>203.162.69.18,16883</t>
+  </si>
+  <si>
+    <t>203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, đứt ngầm mạch</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B20"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1435,9 @@
       <c r="B6" s="37">
         <v>44327</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44335</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -1378,16 +1449,34 @@
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="I6" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
       <c r="U6" s="84" t="s">
@@ -1405,7 +1494,9 @@
       <c r="B7" s="37">
         <v>44327</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44335</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
@@ -1417,16 +1508,34 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
       <c r="U7" s="85"/>
@@ -1442,7 +1551,9 @@
       <c r="B8" s="37">
         <v>44327</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44335</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
@@ -1454,16 +1565,34 @@
         <v>61</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
       <c r="U8" s="85"/>
@@ -1479,7 +1608,9 @@
       <c r="B9" s="37">
         <v>44327</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44335</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>66</v>
       </c>
@@ -1491,16 +1622,34 @@
         <v>61</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="I9" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
       <c r="U9" s="85"/>
@@ -1516,7 +1665,9 @@
       <c r="B10" s="37">
         <v>44327</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44335</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
@@ -1528,16 +1679,34 @@
         <v>61</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
       <c r="U10" s="85"/>
@@ -1553,7 +1722,9 @@
       <c r="B11" s="37">
         <v>44327</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="37">
+        <v>44335</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
@@ -1565,16 +1736,34 @@
         <v>61</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
       <c r="U11" s="85"/>
@@ -1590,7 +1779,9 @@
       <c r="B12" s="37">
         <v>44327</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="37">
+        <v>44335</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>66</v>
       </c>
@@ -1602,16 +1793,34 @@
         <v>61</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
       <c r="U12" s="84" t="s">
@@ -1629,7 +1838,9 @@
       <c r="B13" s="37">
         <v>44327</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="37">
+        <v>44335</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>66</v>
       </c>
@@ -1641,16 +1852,34 @@
         <v>61</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
       <c r="U13" s="85"/>
@@ -1666,7 +1895,9 @@
       <c r="B14" s="37">
         <v>44327</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="37">
+        <v>44335</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
@@ -1678,16 +1909,34 @@
         <v>61</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
       <c r="U14" s="85"/>
@@ -1703,7 +1952,9 @@
       <c r="B15" s="37">
         <v>44327</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="37">
+        <v>44335</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>66</v>
       </c>
@@ -1715,16 +1966,34 @@
         <v>61</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="I15" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
       <c r="U15" s="85"/>
@@ -1740,7 +2009,9 @@
       <c r="B16" s="37">
         <v>44327</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="37">
+        <v>44335</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>66</v>
       </c>
@@ -1752,16 +2023,34 @@
         <v>61</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="I16" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
       <c r="U16" s="86"/>
@@ -1777,7 +2066,9 @@
       <c r="B17" s="37">
         <v>44327</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="37">
+        <v>44335</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>66</v>
       </c>
@@ -1789,16 +2080,34 @@
         <v>61</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="74"/>
@@ -1812,7 +2121,9 @@
       <c r="B18" s="37">
         <v>44327</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="37">
+        <v>44335</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>66</v>
       </c>
@@ -1824,16 +2135,34 @@
         <v>61</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="I18" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -1847,7 +2176,9 @@
       <c r="B19" s="37">
         <v>44327</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="37">
+        <v>44335</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>66</v>
       </c>
@@ -1860,15 +2191,31 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="57"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
       <c r="U19" s="75" t="s">
@@ -1886,7 +2233,9 @@
       <c r="B20" s="37">
         <v>44327</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="37">
+        <v>44335</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>66</v>
       </c>
@@ -1898,16 +2247,32 @@
         <v>61</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>126</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -1924,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
@@ -1956,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
@@ -1979,7 +2344,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1988,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
@@ -2015,7 +2380,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
@@ -2256,7 +2621,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2352,7 +2717,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -2384,7 +2749,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2448,7 +2813,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3056,7 +3421,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3636,9 @@
       <c r="B6" s="37">
         <v>44327</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44335</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>45</v>
       </c>
@@ -3285,16 +3652,26 @@
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
       <c r="U6" s="84" t="s">
@@ -3742,7 +4119,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3987,7 +4364,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4243,7 +4620,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4361,7 +4738,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4850,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5066,7 +5443,9 @@
       <c r="B6" s="37">
         <v>44327</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44335</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -5090,12 +5469,22 @@
       <c r="L6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
       <c r="U6" s="84" t="s">
@@ -5113,7 +5502,9 @@
       <c r="B7" s="37">
         <v>44327</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44335</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -5166,7 +5557,9 @@
       <c r="B8" s="37">
         <v>44327</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44335</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -5191,7 +5584,7 @@
         <v>71</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="40" t="s">
@@ -5221,7 +5614,9 @@
       <c r="B9" s="37">
         <v>44327</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44335</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -5239,12 +5634,22 @@
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="85"/>
@@ -5260,7 +5665,9 @@
       <c r="B10" s="37">
         <v>44327</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44335</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -5283,7 +5690,7 @@
         <v>71</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="40" t="s">
@@ -5313,7 +5720,9 @@
       <c r="B11" s="37">
         <v>44327</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="37">
+        <v>44335</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -5366,7 +5775,9 @@
       <c r="B12" s="37">
         <v>44327</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="37">
+        <v>44335</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -5379,10 +5790,10 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>89</v>
@@ -5391,7 +5802,7 @@
         <v>71</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
@@ -5423,7 +5834,9 @@
       <c r="B13" s="37">
         <v>44327</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="37">
+        <v>44335</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -5437,16 +5850,16 @@
       <c r="H13" s="13"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
       <c r="M13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>78</v>
@@ -5472,7 +5885,9 @@
       <c r="B14" s="37">
         <v>44327</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="37">
+        <v>44335</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -5527,7 +5942,9 @@
       <c r="B15" s="37">
         <v>44327</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="37">
+        <v>44335</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -5580,7 +5997,9 @@
       <c r="B16" s="37">
         <v>44327</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="37">
+        <v>44335</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -5633,7 +6052,9 @@
       <c r="B17" s="37">
         <v>44327</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="37">
+        <v>44335</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -5657,21 +6078,21 @@
       <c r="L17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="42"/>
       <c r="O17" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>19</v>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="R17" s="38" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
@@ -5686,7 +6107,9 @@
       <c r="B18" s="37">
         <v>44327</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="37">
+        <v>44335</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -5737,7 +6160,9 @@
       <c r="B19" s="37">
         <v>44327</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="37">
+        <v>44335</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -5750,10 +6175,10 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>89</v>
@@ -5794,7 +6219,9 @@
       <c r="B20" s="37">
         <v>44327</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="37">
+        <v>44335</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -5839,7 +6266,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5850,7 +6277,9 @@
       <c r="B21" s="37">
         <v>44327</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="37">
+        <v>44335</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>44</v>
       </c>
@@ -5897,7 +6326,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5908,7 +6337,9 @@
       <c r="B22" s="37">
         <v>44327</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="37">
+        <v>44335</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -5924,7 +6355,7 @@
         <v>80</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>89</v>
@@ -5933,7 +6364,7 @@
         <v>71</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="40" t="s">
@@ -5946,7 +6377,7 @@
         <v>96</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
@@ -5966,7 +6397,9 @@
       <c r="B23" s="37">
         <v>44327</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="37">
+        <v>44335</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
@@ -5989,7 +6422,7 @@
         <v>71</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="40" t="s">
@@ -6017,7 +6450,9 @@
       <c r="B24" s="37">
         <v>44327</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="37">
+        <v>44335</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>44</v>
       </c>
@@ -6030,7 +6465,7 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
@@ -6068,7 +6503,9 @@
       <c r="B25" s="37">
         <v>44327</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="37">
+        <v>44335</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
@@ -6178,7 +6615,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -6210,7 +6647,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -6370,7 +6807,7 @@
       </c>
       <c r="V33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14"/>
     </row>
@@ -6434,7 +6871,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6498,7 +6935,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6616,7 +7053,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W41" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="160">
   <si>
     <t>STT</t>
   </si>
@@ -448,6 +448,75 @@
   </si>
   <si>
     <t>Thiết bị lỗi nguồn, đứt ngầm mạch</t>
+  </si>
+  <si>
+    <t>203.162.69.18,17880</t>
+  </si>
+  <si>
+    <t>Restore lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module SIM 868</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>112.213.94.88,20005</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Thiết bị không sáng đèn mem</t>
+  </si>
+  <si>
+    <t>Thiết bị chạy baudrate GPS 115200</t>
+  </si>
+  <si>
+    <t>Set lại baudrate GPS, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị X GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>112.213.94.88,31003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp FW </t>
+  </si>
+  <si>
+    <t>203.162.69.75,30010</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi anten GSM</t>
+  </si>
+  <si>
+    <t>Thay anten GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>112.213.94.88,30002</t>
+  </si>
+  <si>
+    <t>203.162.69.75,21675</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt đông bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp, không nhận sim</t>
   </si>
 </sst>
 </file>
@@ -525,7 +594,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -874,7 +949,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,19 +988,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,43 +1330,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1333,58 +1411,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1409,23 +1487,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,7 +1557,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1538,7 +1616,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1673,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1652,7 +1730,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1709,7 +1787,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1766,7 +1844,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1901,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1882,7 +1960,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1939,7 +2017,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +2074,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2131,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2288,12 +2366,20 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="69">
+        <v>44342</v>
+      </c>
       <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="39">
+        <v>864811037109159</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="57"/>
       <c r="J21" s="1"/>
@@ -2312,7 +2398,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2320,12 +2406,20 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="69">
+        <v>44342</v>
+      </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868345035600485</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="57"/>
       <c r="J22" s="10"/>
@@ -2352,12 +2446,20 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="69">
+        <v>44342</v>
+      </c>
       <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="39">
+        <v>866192037845805</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="57"/>
       <c r="J23" s="1"/>
@@ -2379,12 +2481,20 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="69">
+        <v>44342</v>
+      </c>
       <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="D24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868345031042625</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="57"/>
       <c r="J24" s="1"/>
@@ -2406,12 +2516,20 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="69">
+        <v>44342</v>
+      </c>
       <c r="C25" s="69"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="39">
+        <v>869627031838089</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="57"/>
       <c r="J25" s="1"/>
@@ -2437,12 +2555,20 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="69">
+        <v>44342</v>
+      </c>
       <c r="C26" s="69"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="39">
+        <v>866192037789557</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H26" s="10"/>
       <c r="I26" s="57"/>
       <c r="J26" s="1"/>
@@ -2469,12 +2595,20 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="69">
+        <v>44342</v>
+      </c>
       <c r="C27" s="69"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868345035606623</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" s="57"/>
       <c r="J27" s="1"/>
@@ -2501,12 +2635,20 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="69">
+        <v>44342</v>
+      </c>
       <c r="C28" s="69"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="D28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868926033917516</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="57"/>
       <c r="J28" s="1"/>
@@ -2525,7 +2667,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -2533,23 +2675,47 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="69">
+        <v>44342</v>
+      </c>
       <c r="C29" s="69"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868345031032832</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="O29" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -2565,12 +2731,20 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="69">
+        <v>44342</v>
+      </c>
       <c r="C30" s="69"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868345031032923</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="57"/>
       <c r="J30" s="1"/>
@@ -2597,12 +2771,20 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="69">
+        <v>44342</v>
+      </c>
       <c r="C31" s="69"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868926033920627</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="57"/>
       <c r="J31" s="1"/>
@@ -2629,12 +2811,20 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="69">
+        <v>44342</v>
+      </c>
       <c r="C32" s="69"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="39">
+        <v>864811037292781</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="57"/>
       <c r="J32" s="1"/>
@@ -2661,12 +2851,20 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="69">
+        <v>44342</v>
+      </c>
       <c r="C33" s="69"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="39">
+        <v>866050031810854</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="57"/>
       <c r="J33" s="1"/>
@@ -2813,7 +3011,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3392,13 +3590,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3410,6 +3601,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3453,43 +3651,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3534,58 +3732,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3610,23 +3808,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3674,7 +3872,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3705,7 +3903,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3932,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3961,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3792,7 +3990,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3821,7 +4019,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3850,7 +4048,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3881,7 +4079,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3910,7 +4108,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3939,7 +4137,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3968,7 +4166,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5199,13 +5397,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5217,6 +5408,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5227,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5260,43 +5458,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5341,58 +5539,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5417,23 +5615,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5487,7 +5685,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5544,7 +5742,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5601,7 +5799,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5850,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5707,7 +5905,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5762,7 +5960,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5819,7 +6017,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5872,7 +6070,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5929,7 +6127,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5984,7 +6182,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6039,7 +6237,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6266,7 +6464,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -6326,7 +6524,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -6386,7 +6584,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6559,23 +6757,47 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="69">
+        <v>44342</v>
+      </c>
       <c r="C26" s="69"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868183035877989</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -6591,23 +6813,47 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="69">
+        <v>44342</v>
+      </c>
       <c r="C27" s="69"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>867857039912493</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -6623,23 +6869,47 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="69">
+        <v>44342</v>
+      </c>
       <c r="C28" s="69"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>867717030420799</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -6655,23 +6925,49 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="69">
+        <v>44342</v>
+      </c>
       <c r="C29" s="69"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183033789475</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="I29" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="O29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -6679,7 +6975,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6687,23 +6983,47 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="69">
+        <v>44342</v>
+      </c>
       <c r="C30" s="69"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>867717030420260</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -6719,23 +7039,47 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="69">
+        <v>44342</v>
+      </c>
       <c r="C31" s="69"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183034570320</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="57" t="s">
+        <v>113</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -6743,7 +7087,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6751,23 +7095,47 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="69">
+        <v>44342</v>
+      </c>
       <c r="C32" s="69"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>867857039911925</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="O32" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -6775,7 +7143,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -6783,23 +7151,47 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="69">
+        <v>44342</v>
+      </c>
       <c r="C33" s="69"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868183034670021</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
+      <c r="O33" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
@@ -6815,23 +7207,49 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="69">
+        <v>44342</v>
+      </c>
       <c r="C34" s="69"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868183038027921</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
+      <c r="I34" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="14"/>
       <c r="U34" s="4" t="s">
@@ -6839,7 +7257,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -6847,23 +7265,47 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="69">
+        <v>44342</v>
+      </c>
       <c r="C35" s="69"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183037857047</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
+      <c r="O35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S35" s="4"/>
       <c r="T35" s="14"/>
       <c r="U35" s="4" t="s">
@@ -6871,7 +7313,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6879,23 +7321,47 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="69">
+        <v>44342</v>
+      </c>
       <c r="C36" s="69"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183037812976</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="I36" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
+      <c r="O36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S36" s="4"/>
       <c r="T36" s="14"/>
       <c r="U36" s="4" t="s">
@@ -6903,7 +7369,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6911,23 +7377,51 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="69">
+        <v>44342</v>
+      </c>
       <c r="C37" s="69"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>860157040207356</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="S37" s="4"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
@@ -6935,7 +7429,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6943,23 +7437,45 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="69">
+        <v>44342</v>
+      </c>
       <c r="C38" s="69"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>868183035906333</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
+      <c r="O38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S38" s="4"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
@@ -6970,23 +7486,39 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="69">
+        <v>44342</v>
+      </c>
       <c r="C39" s="69"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>867717030422860</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
+      <c r="I39" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -6997,23 +7529,41 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="69">
+        <v>44342</v>
+      </c>
       <c r="C40" s="69"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>867717030424957</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
+      <c r="I40" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -7029,23 +7579,47 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="69">
+        <v>44342</v>
+      </c>
       <c r="C41" s="69"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>868183037857971</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
+      <c r="O41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="14"/>
       <c r="U41" s="18" t="s">
@@ -7061,23 +7635,51 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="69">
+        <v>44342</v>
+      </c>
       <c r="C42" s="69"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>860157040208149</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
+      <c r="O42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="S42" s="4"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
@@ -7088,23 +7690,47 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="69">
+        <v>44342</v>
+      </c>
       <c r="C43" s="69"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>867717030475413</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="I43" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
+      <c r="O43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S43" s="4"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
@@ -7115,23 +7741,49 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="69">
+        <v>44342</v>
+      </c>
       <c r="C44" s="69"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>860157040208057</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="S44" s="4"/>
       <c r="T44" s="14"/>
       <c r="U44" s="10" t="s">
@@ -7151,23 +7803,49 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="69">
+        <v>44342</v>
+      </c>
       <c r="C45" s="69"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="D45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="39">
+        <v>868183034602842</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="I45" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
+      <c r="O45" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S45" s="4"/>
       <c r="T45" s="14"/>
       <c r="U45" s="10" t="s">
@@ -7190,23 +7868,47 @@
       <c r="A46" s="4">
         <v>41</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="69">
+        <v>44342</v>
+      </c>
       <c r="C46" s="69"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="D46" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="39">
+        <v>868183035893002</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="I46" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
+      <c r="O46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S46" s="4"/>
       <c r="T46" s="14"/>
       <c r="U46" s="10" t="s">
@@ -7514,6 +8216,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7525,13 +8234,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7543,7 +8245,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S33"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7575,43 +8277,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7656,58 +8358,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7732,23 +8434,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7774,7 +8476,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7805,7 +8507,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7834,7 +8536,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7863,7 +8565,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7892,7 +8594,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7921,7 +8623,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7950,7 +8652,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7981,7 +8683,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8010,7 +8712,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8039,7 +8741,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8068,7 +8770,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9299,13 +10001,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9317,6 +10012,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
   <si>
     <t>STT</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>Thiết bị hỏng diode chống quá áp, không nhận sim</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>112.213.94.88,31001</t>
   </si>
 </sst>
 </file>
@@ -949,22 +961,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +988,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1330,43 +1342,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1411,58 +1423,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1487,23 +1499,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1569,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1616,7 +1628,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1673,7 +1685,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1742,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1799,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1856,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1901,7 +1913,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1960,7 +1972,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2017,7 +2029,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2074,7 +2086,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2131,7 +2143,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2381,10 +2393,16 @@
         <v>61</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="40"/>
@@ -2496,10 +2514,16 @@
         <v>61</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="57" t="s">
+        <v>103</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="40"/>
@@ -2531,10 +2555,18 @@
         <v>61</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="I25" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="40"/>
@@ -2699,7 +2731,9 @@
       <c r="K29" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="M29" s="10" t="s">
         <v>144</v>
       </c>
@@ -3590,6 +3624,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3601,13 +3642,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3651,43 +3685,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3732,58 +3766,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3808,23 +3842,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,7 +3906,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3903,7 +3937,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3932,7 +3966,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3961,7 +3995,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3990,7 +4024,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4019,7 +4053,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4048,7 +4082,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4079,7 +4113,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4108,7 +4142,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4137,7 +4171,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4166,7 +4200,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5397,6 +5431,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5408,13 +5449,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5425,7 +5459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -5458,43 +5492,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5539,58 +5573,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5615,23 +5649,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5685,7 +5719,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5742,7 +5776,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5799,7 +5833,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5850,7 +5884,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5905,7 +5939,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5960,7 +5994,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6017,7 +6051,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6070,7 +6104,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6127,7 +6161,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6182,7 +6216,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6237,7 +6271,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7234,7 +7268,7 @@
       <c r="L34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="89" t="s">
+      <c r="M34" s="76" t="s">
         <v>106</v>
       </c>
       <c r="N34" s="10"/>
@@ -7513,12 +7547,12 @@
       <c r="L39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -7556,14 +7590,14 @@
       <c r="L40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="89" t="s">
+      <c r="M40" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -8216,13 +8250,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8234,6 +8261,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8277,43 +8311,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8358,58 +8392,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="87" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -8434,23 +8468,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8476,7 +8510,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8507,7 +8541,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8536,7 +8570,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8565,7 +8599,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8594,7 +8628,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8623,7 +8657,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8652,7 +8686,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8683,7 +8717,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8712,7 +8746,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8741,7 +8775,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8770,7 +8804,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10001,6 +10035,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10012,13 +10053,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="164">
   <si>
     <t>STT</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Thiết bị lỗi module SIM 868</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>112.213.94.88,20005</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
   </si>
   <si>
     <t>112.213.94.88,31001</t>
+  </si>
+  <si>
+    <t>Thay khay sim cho thiết bị, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,12 +622,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,9 +953,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1342,43 +1333,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -1423,58 +1414,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -1499,23 +1490,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,7 +1560,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1628,7 +1619,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1676,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1742,7 +1733,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1799,7 +1790,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +1847,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1913,7 +1904,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1972,7 +1963,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2029,7 +2020,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2086,7 +2077,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2134,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2398,7 +2389,7 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>121</v>
@@ -2519,7 +2510,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" s="40" t="s">
         <v>119</v>
@@ -2556,13 +2547,13 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L25" s="40" t="s">
         <v>119</v>
@@ -2735,7 +2726,7 @@
         <v>119</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="40" t="s">
@@ -3685,43 +3676,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -3766,58 +3757,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -3842,23 +3833,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,7 +3897,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3937,7 +3928,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3966,7 +3957,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3995,7 +3986,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4024,7 +4015,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4053,7 +4044,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4082,7 +4073,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4113,7 +4104,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4142,7 +4133,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4171,7 +4162,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4200,7 +4191,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5459,8 +5450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5492,43 +5483,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="54"/>
@@ -5573,58 +5564,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5649,23 +5640,23 @@
       <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5719,7 +5710,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5776,7 +5767,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5833,7 +5824,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5884,7 +5875,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5939,7 +5930,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5994,7 +5985,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6051,7 +6042,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6104,7 +6095,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6161,7 +6152,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6216,7 +6207,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6271,7 +6262,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6558,7 +6549,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -6794,7 +6785,9 @@
       <c r="B26" s="69">
         <v>44342</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="69">
+        <v>44357</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>44</v>
       </c>
@@ -6807,7 +6800,7 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>72</v>
@@ -6850,7 +6843,9 @@
       <c r="B27" s="69">
         <v>44342</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="69">
+        <v>44357</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>44</v>
       </c>
@@ -6895,7 +6890,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -6906,7 +6901,9 @@
       <c r="B28" s="69">
         <v>44342</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="69">
+        <v>44357</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>44</v>
       </c>
@@ -6962,7 +6959,9 @@
       <c r="B29" s="69">
         <v>44342</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="69">
+        <v>44357</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>44</v>
       </c>
@@ -6975,10 +6974,10 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>69</v>
@@ -6987,7 +6986,7 @@
         <v>71</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
@@ -7020,7 +7019,9 @@
       <c r="B30" s="69">
         <v>44342</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="69">
+        <v>44357</v>
+      </c>
       <c r="D30" s="38" t="s">
         <v>44</v>
       </c>
@@ -7076,7 +7077,9 @@
       <c r="B31" s="69">
         <v>44342</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="69">
+        <v>44357</v>
+      </c>
       <c r="D31" s="38" t="s">
         <v>44</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>71</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
@@ -7121,7 +7124,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7132,7 +7135,9 @@
       <c r="B32" s="69">
         <v>44342</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="69">
+        <v>44357</v>
+      </c>
       <c r="D32" s="38" t="s">
         <v>44</v>
       </c>
@@ -7188,7 +7193,9 @@
       <c r="B33" s="69">
         <v>44342</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="69">
+        <v>44357</v>
+      </c>
       <c r="D33" s="38" t="s">
         <v>44</v>
       </c>
@@ -7244,7 +7251,9 @@
       <c r="B34" s="69">
         <v>44342</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="69">
+        <v>44357</v>
+      </c>
       <c r="D34" s="38" t="s">
         <v>44</v>
       </c>
@@ -7257,10 +7266,10 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>89</v>
@@ -7268,7 +7277,7 @@
       <c r="L34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="76" t="s">
+      <c r="M34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="N34" s="10"/>
@@ -7302,7 +7311,9 @@
       <c r="B35" s="69">
         <v>44342</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="69">
+        <v>44357</v>
+      </c>
       <c r="D35" s="38" t="s">
         <v>44</v>
       </c>
@@ -7325,7 +7336,7 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
@@ -7347,7 +7358,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7358,7 +7369,9 @@
       <c r="B36" s="69">
         <v>44342</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="69">
+        <v>44357</v>
+      </c>
       <c r="D36" s="38" t="s">
         <v>44</v>
       </c>
@@ -7381,7 +7394,7 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
@@ -7414,7 +7427,9 @@
       <c r="B37" s="69">
         <v>44342</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="69">
+        <v>44357</v>
+      </c>
       <c r="D37" s="38" t="s">
         <v>44</v>
       </c>
@@ -7426,13 +7441,13 @@
         <v>65</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>89</v>
@@ -7441,7 +7456,7 @@
         <v>71</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
@@ -7454,7 +7469,7 @@
         <v>19</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="14"/>
@@ -7463,7 +7478,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7474,7 +7489,9 @@
       <c r="B38" s="69">
         <v>44342</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="69">
+        <v>44357</v>
+      </c>
       <c r="D38" s="38" t="s">
         <v>44</v>
       </c>
@@ -7487,7 +7504,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="10" t="s">
@@ -7495,7 +7512,7 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
@@ -7523,7 +7540,9 @@
       <c r="B39" s="69">
         <v>44342</v>
       </c>
-      <c r="C39" s="69"/>
+      <c r="C39" s="69">
+        <v>44357</v>
+      </c>
       <c r="D39" s="38" t="s">
         <v>44</v>
       </c>
@@ -7539,7 +7558,7 @@
         <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>89</v>
@@ -7547,12 +7566,22 @@
       <c r="L39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
+      <c r="M39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -7566,7 +7595,9 @@
       <c r="B40" s="69">
         <v>44342</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="69">
+        <v>44357</v>
+      </c>
       <c r="D40" s="38" t="s">
         <v>44</v>
       </c>
@@ -7590,14 +7621,22 @@
       <c r="L40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
+      <c r="M40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -7616,7 +7655,9 @@
       <c r="B41" s="69">
         <v>44342</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="69">
+        <v>44357</v>
+      </c>
       <c r="D41" s="38" t="s">
         <v>44</v>
       </c>
@@ -7639,7 +7680,7 @@
         <v>71</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
@@ -7652,7 +7693,7 @@
         <v>18</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="14"/>
@@ -7661,7 +7702,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -7672,7 +7713,9 @@
       <c r="B42" s="69">
         <v>44342</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="69">
+        <v>44357</v>
+      </c>
       <c r="D42" s="38" t="s">
         <v>44</v>
       </c>
@@ -7684,13 +7727,13 @@
         <v>61</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I42" s="57" t="s">
         <v>80</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>89</v>
@@ -7699,7 +7742,7 @@
         <v>71</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
@@ -7712,7 +7755,7 @@
         <v>19</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="14"/>
@@ -7727,7 +7770,9 @@
       <c r="B43" s="69">
         <v>44342</v>
       </c>
-      <c r="C43" s="69"/>
+      <c r="C43" s="69">
+        <v>44357</v>
+      </c>
       <c r="D43" s="38" t="s">
         <v>44</v>
       </c>
@@ -7778,7 +7823,9 @@
       <c r="B44" s="69">
         <v>44342</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="69">
+        <v>44357</v>
+      </c>
       <c r="D44" s="38" t="s">
         <v>44</v>
       </c>
@@ -7791,10 +7838,10 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>89</v>
@@ -7803,7 +7850,7 @@
         <v>71</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="s">
@@ -7840,7 +7887,9 @@
       <c r="B45" s="69">
         <v>44342</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="69">
+        <v>44357</v>
+      </c>
       <c r="D45" s="38" t="s">
         <v>44</v>
       </c>
@@ -7905,7 +7954,9 @@
       <c r="B46" s="69">
         <v>44342</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="69">
+        <v>44357</v>
+      </c>
       <c r="D46" s="38" t="s">
         <v>44</v>
       </c>
@@ -7921,14 +7972,14 @@
         <v>74</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>71</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
@@ -8311,43 +8362,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8392,58 +8443,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -8468,23 +8519,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8510,7 +8561,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8541,7 +8592,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8570,7 +8621,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8599,7 +8650,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8628,7 +8679,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8657,7 +8708,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8686,7 +8737,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8717,7 +8768,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8746,7 +8797,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8775,7 +8826,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8804,7 +8855,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_TarisSG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang5\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="183">
   <si>
     <t>STT</t>
   </si>
@@ -525,10 +525,67 @@
     <t>W.1.00.---01.180629</t>
   </si>
   <si>
-    <t>112.213.94.88,31001</t>
-  </si>
-  <si>
     <t>Thay khay sim cho thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31001</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20575</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Thay thạch anh, nạp lại FW, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30001</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180320</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16884</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20275</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t>Thiết bị chập ACC</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30000</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20475</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showZeros="0" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2429,9 @@
       <c r="B21" s="69">
         <v>44342</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="37">
+        <v>44391</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>66</v>
       </c>
@@ -2385,21 +2444,33 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>159</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -2407,7 +2478,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2418,7 +2489,9 @@
       <c r="B22" s="69">
         <v>44342</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="37">
+        <v>44391</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>66</v>
       </c>
@@ -2431,15 +2504,27 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="57"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -2447,7 +2532,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2458,7 +2543,9 @@
       <c r="B23" s="69">
         <v>44342</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="37">
+        <v>44391</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>66</v>
       </c>
@@ -2471,15 +2558,29 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="57"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -2493,7 +2594,9 @@
       <c r="B24" s="69">
         <v>44342</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="37">
+        <v>44391</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>66</v>
       </c>
@@ -2506,21 +2609,33 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K24" s="10" t="s">
         <v>160</v>
       </c>
       <c r="L24" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -2534,7 +2649,9 @@
       <c r="B25" s="69">
         <v>44342</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="37">
+        <v>44391</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>66</v>
       </c>
@@ -2547,7 +2664,7 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>75</v>
@@ -2558,12 +2675,22 @@
       <c r="L25" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="75" t="s">
@@ -2581,7 +2708,9 @@
       <c r="B26" s="69">
         <v>44342</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="37">
+        <v>44391</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>66</v>
       </c>
@@ -2593,16 +2722,32 @@
         <v>61</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -2621,7 +2766,9 @@
       <c r="B27" s="69">
         <v>44342</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="37">
+        <v>44391</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>66</v>
       </c>
@@ -2633,16 +2780,34 @@
         <v>61</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -2661,7 +2826,9 @@
       <c r="B28" s="69">
         <v>44342</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="37">
+        <v>44391</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>66</v>
       </c>
@@ -2673,16 +2840,34 @@
         <v>61</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="I28" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -2701,7 +2886,9 @@
       <c r="B29" s="69">
         <v>44342</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="37">
+        <v>44391</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>66</v>
       </c>
@@ -2759,7 +2946,9 @@
       <c r="B30" s="69">
         <v>44342</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="37">
+        <v>44391</v>
+      </c>
       <c r="D30" s="38" t="s">
         <v>66</v>
       </c>
@@ -2771,16 +2960,32 @@
         <v>61</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="57" t="s">
+        <v>160</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -2788,7 +2993,7 @@
       </c>
       <c r="V30" s="10">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="14"/>
     </row>
@@ -2799,7 +3004,9 @@
       <c r="B31" s="69">
         <v>44342</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="37">
+        <v>44391</v>
+      </c>
       <c r="D31" s="38" t="s">
         <v>66</v>
       </c>
@@ -2811,16 +3018,34 @@
         <v>61</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="I31" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="O31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -2828,7 +3053,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2839,7 +3064,9 @@
       <c r="B32" s="69">
         <v>44342</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="37">
+        <v>44391</v>
+      </c>
       <c r="D32" s="38" t="s">
         <v>66</v>
       </c>
@@ -2852,15 +3079,27 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="57"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="M32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N32" s="52"/>
+      <c r="O32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -2868,7 +3107,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2879,7 +3118,9 @@
       <c r="B33" s="69">
         <v>44342</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="37">
+        <v>44391</v>
+      </c>
       <c r="D33" s="38" t="s">
         <v>66</v>
       </c>
@@ -2891,16 +3132,34 @@
         <v>61</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="I33" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
+      <c r="O33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
@@ -2972,7 +3231,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3036,7 +3295,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -3154,7 +3413,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -5450,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7567,7 +7826,7 @@
         <v>71</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
